--- a/resultados/pretratamiento-tablas-control/pretrat-francia-elo-dificil.xlsx
+++ b/resultados/pretratamiento-tablas-control/pretrat-francia-elo-dificil.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="1063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="1064">
   <si>
     <t>Pretrat</t>
   </si>
@@ -121,7 +121,7 @@
     <t>51.845 (116)</t>
   </si>
   <si>
-    <t>9.474 (116)</t>
+    <t>9.483 (116)</t>
   </si>
   <si>
     <t>9.0 (116)</t>
@@ -172,7 +172,7 @@
     <t>44.551 (78)</t>
   </si>
   <si>
-    <t>11.91 (78)</t>
+    <t>11.897 (78)</t>
   </si>
   <si>
     <t>12.154 (78)</t>
@@ -1003,7 +1003,7 @@
     <t>47.328 (116)</t>
   </si>
   <si>
-    <t>10.819 (116)</t>
+    <t>10.81 (116)</t>
   </si>
   <si>
     <t>10.147 (116)</t>
@@ -1051,7 +1051,7 @@
     <t>44.5 (22)</t>
   </si>
   <si>
-    <t>10.955 (22)</t>
+    <t>11.0 (22)</t>
   </si>
   <si>
     <t>12.318 (22)</t>
@@ -1159,7 +1159,7 @@
     <t>48.069 (102)</t>
   </si>
   <si>
-    <t>10.137 (102)</t>
+    <t>10.127 (102)</t>
   </si>
   <si>
     <t>9.775 (102)</t>
@@ -1213,7 +1213,7 @@
     <t>44.652 (46)</t>
   </si>
   <si>
-    <t>12.413 (46)</t>
+    <t>12.435 (46)</t>
   </si>
   <si>
     <t>11.891 (46)</t>
@@ -1369,7 +1369,7 @@
     <t>49.585 (106)</t>
   </si>
   <si>
-    <t>10.123 (106)</t>
+    <t>10.113 (106)</t>
   </si>
   <si>
     <t>9.981 (106)</t>
@@ -1417,7 +1417,7 @@
     <t>46.246 (61)</t>
   </si>
   <si>
-    <t>11.656 (61)</t>
+    <t>11.672 (61)</t>
   </si>
   <si>
     <t>11.41 (61)</t>
@@ -1573,7 +1573,7 @@
     <t>46.061 (98)</t>
   </si>
   <si>
-    <t>11.827 (98)</t>
+    <t>11.816 (98)</t>
   </si>
   <si>
     <t>11.469 (98)</t>
@@ -1627,7 +1627,7 @@
     <t>44.115 (26)</t>
   </si>
   <si>
-    <t>12.192 (26)</t>
+    <t>12.231 (26)</t>
   </si>
   <si>
     <t>12.538 (26)</t>
@@ -1732,7 +1732,7 @@
     <t>47.798 (109)</t>
   </si>
   <si>
-    <t>10.972 (109)</t>
+    <t>10.963 (109)</t>
   </si>
   <si>
     <t>10.321 (109)</t>
@@ -1840,7 +1840,7 @@
     <t>35.0 (3)</t>
   </si>
   <si>
-    <t>9.0 (3)</t>
+    <t>9.333 (3)</t>
   </si>
   <si>
     <t>13.0 (3)</t>
@@ -1948,7 +1948,7 @@
     <t>49.966 (88)</t>
   </si>
   <si>
-    <t>10.284 (88)</t>
+    <t>10.273 (88)</t>
   </si>
   <si>
     <t>10.136 (88)</t>
@@ -2050,7 +2050,7 @@
     <t>45.4 (10)</t>
   </si>
   <si>
-    <t>11.2 (10)</t>
+    <t>11.3 (10)</t>
   </si>
   <si>
     <t>12.0 (10)</t>
@@ -2155,7 +2155,7 @@
     <t>51.457 (81)</t>
   </si>
   <si>
-    <t>9.728 (81)</t>
+    <t>9.716 (81)</t>
   </si>
   <si>
     <t>9.333 (81)</t>
@@ -2263,12 +2263,15 @@
     <t>44.353 (17)</t>
   </si>
   <si>
+    <t>12.059 (17)</t>
+  </si>
+  <si>
+    <t>12.647 (17)</t>
+  </si>
+  <si>
     <t>12.0 (17)</t>
   </si>
   <si>
-    <t>12.647 (17)</t>
-  </si>
-  <si>
     <t>12.588 (17)</t>
   </si>
   <si>
@@ -2365,7 +2368,7 @@
     <t>47.204 (103)</t>
   </si>
   <si>
-    <t>11.087 (103)</t>
+    <t>11.078 (103)</t>
   </si>
   <si>
     <t>11.175 (103)</t>
@@ -2419,15 +2422,12 @@
     <t>44.405 (37)</t>
   </si>
   <si>
-    <t>12.432 (37)</t>
+    <t>12.459 (37)</t>
   </si>
   <si>
     <t>11.73 (37)</t>
   </si>
   <si>
-    <t>12.459 (37)</t>
-  </si>
-  <si>
     <t>14.27 (37)</t>
   </si>
   <si>
@@ -2572,7 +2572,7 @@
     <t>48.337 (98)</t>
   </si>
   <si>
-    <t>10.765 (98)</t>
+    <t>10.755 (98)</t>
   </si>
   <si>
     <t>10.163 (98)</t>
@@ -2677,12 +2677,15 @@
     <t>42.5 (8)</t>
   </si>
   <si>
+    <t>10.875 (8)</t>
+  </si>
+  <si>
+    <t>10.375 (8)</t>
+  </si>
+  <si>
     <t>10.75 (8)</t>
   </si>
   <si>
-    <t>10.375 (8)</t>
-  </si>
-  <si>
     <t>12.125 (8)</t>
   </si>
   <si>
@@ -2782,7 +2785,7 @@
     <t>50.338 (71)</t>
   </si>
   <si>
-    <t>9.817 (71)</t>
+    <t>9.803 (71)</t>
   </si>
   <si>
     <t>9.563 (71)</t>
@@ -2887,7 +2890,7 @@
     <t>47.308 (13)</t>
   </si>
   <si>
-    <t>10.615 (13)</t>
+    <t>10.692 (13)</t>
   </si>
   <si>
     <t>10.769 (13)</t>
@@ -3034,7 +3037,7 @@
     <t>52.772 (57)</t>
   </si>
   <si>
-    <t>9.368 (57)</t>
+    <t>9.351 (57)</t>
   </si>
   <si>
     <t>8.877 (57)</t>
@@ -3139,7 +3142,7 @@
     <t>46.29 (31)</t>
   </si>
   <si>
-    <t>11.742 (31)</t>
+    <t>11.774 (31)</t>
   </si>
   <si>
     <t>12.097 (31)</t>
@@ -3644,10 +3647,10 @@
         <v>2.775</v>
       </c>
       <c r="H2">
-        <v>0.612</v>
+        <v>0.718</v>
       </c>
       <c r="I2">
-        <v>0.541</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3673,10 +3676,10 @@
         <v>-8.154</v>
       </c>
       <c r="H3">
-        <v>-1.835</v>
+        <v>-2.205</v>
       </c>
       <c r="I3">
-        <v>0.068</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3702,10 +3705,10 @@
         <v>-2.432</v>
       </c>
       <c r="H4">
-        <v>-0.43</v>
+        <v>-0.356</v>
       </c>
       <c r="I4">
-        <v>0.668</v>
+        <v>0.722</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3731,10 +3734,10 @@
         <v>-1.131</v>
       </c>
       <c r="H5">
-        <v>-0.247</v>
+        <v>-0.21</v>
       </c>
       <c r="I5">
-        <v>0.805</v>
+        <v>0.834</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3760,10 +3763,10 @@
         <v>4.443</v>
       </c>
       <c r="H6">
-        <v>1.062</v>
+        <v>1.113</v>
       </c>
       <c r="I6">
-        <v>0.29</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3789,10 +3792,10 @@
         <v>1.656</v>
       </c>
       <c r="H7">
-        <v>0.413</v>
+        <v>0.357</v>
       </c>
       <c r="I7">
-        <v>0.68</v>
+        <v>0.721</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3815,13 +3818,13 @@
         <v>0.034</v>
       </c>
       <c r="G8">
-        <v>-0.858</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="H8">
-        <v>-0.463</v>
+        <v>-0.521</v>
       </c>
       <c r="I8">
-        <v>0.644</v>
+        <v>0.602</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3847,10 +3850,10 @@
         <v>2.39</v>
       </c>
       <c r="H9">
-        <v>1.313</v>
+        <v>1.294</v>
       </c>
       <c r="I9">
-        <v>0.191</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3876,10 +3879,10 @@
         <v>1.978</v>
       </c>
       <c r="H10">
-        <v>0.968</v>
+        <v>0.85</v>
       </c>
       <c r="I10">
-        <v>0.335</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3905,10 +3908,10 @@
         <v>1.312</v>
       </c>
       <c r="H11">
-        <v>0.672</v>
+        <v>0.496</v>
       </c>
       <c r="I11">
-        <v>0.502</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3934,10 +3937,10 @@
         <v>-2.422</v>
       </c>
       <c r="H12">
-        <v>-1.258</v>
+        <v>-1.32</v>
       </c>
       <c r="I12">
-        <v>0.21</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3963,10 +3966,10 @@
         <v>-0.985</v>
       </c>
       <c r="H13">
-        <v>-0.521</v>
+        <v>-0.439</v>
       </c>
       <c r="I13">
-        <v>0.603</v>
+        <v>0.661</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3992,10 +3995,10 @@
         <v>-0.043</v>
       </c>
       <c r="H14">
-        <v>-1.303</v>
+        <v>-1.155</v>
       </c>
       <c r="I14">
-        <v>0.194</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4021,10 +4024,10 @@
         <v>-0.045</v>
       </c>
       <c r="H15">
-        <v>-1.293</v>
+        <v>-0.912</v>
       </c>
       <c r="I15">
-        <v>0.198</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4050,10 +4053,10 @@
         <v>-0.003</v>
       </c>
       <c r="H16">
-        <v>-0.08</v>
+        <v>-0.062</v>
       </c>
       <c r="I16">
-        <v>0.9360000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4079,10 +4082,10 @@
         <v>0.044</v>
       </c>
       <c r="H17">
-        <v>1.276</v>
+        <v>1.46</v>
       </c>
       <c r="I17">
-        <v>0.204</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4108,10 +4111,10 @@
         <v>0.029</v>
       </c>
       <c r="H18">
-        <v>0.865</v>
+        <v>1.415</v>
       </c>
       <c r="I18">
-        <v>0.389</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4137,10 +4140,10 @@
         <v>0.016</v>
       </c>
       <c r="H19">
-        <v>0.49</v>
+        <v>0.428</v>
       </c>
       <c r="I19">
-        <v>0.625</v>
+        <v>0.669</v>
       </c>
     </row>
   </sheetData>
@@ -4226,10 +4229,10 @@
         <v>7.104</v>
       </c>
       <c r="I2">
-        <v>1.482</v>
+        <v>1.514</v>
       </c>
       <c r="J2">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4258,10 +4261,10 @@
         <v>0.724</v>
       </c>
       <c r="I3">
-        <v>0.151</v>
+        <v>0.208</v>
       </c>
       <c r="J3">
-        <v>0.88</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4290,10 +4293,10 @@
         <v>6.816</v>
       </c>
       <c r="I4">
-        <v>1.135</v>
+        <v>1.014</v>
       </c>
       <c r="J4">
-        <v>0.258</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4322,10 +4325,10 @@
         <v>-0.905</v>
       </c>
       <c r="I5">
-        <v>-0.186</v>
+        <v>-0.147</v>
       </c>
       <c r="J5">
-        <v>0.853</v>
+        <v>0.884</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4354,10 +4357,10 @@
         <v>2.774</v>
       </c>
       <c r="I6">
-        <v>0.621</v>
+        <v>0.842</v>
       </c>
       <c r="J6">
-        <v>0.535</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4386,10 +4389,10 @@
         <v>-3.17</v>
       </c>
       <c r="I7">
-        <v>-0.744</v>
+        <v>-0.794</v>
       </c>
       <c r="J7">
-        <v>0.458</v>
+        <v>0.427</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4415,13 +4418,13 @@
         <v>0.031</v>
       </c>
       <c r="H8">
-        <v>-1.257</v>
+        <v>-1.205</v>
       </c>
       <c r="I8">
-        <v>-0.637</v>
+        <v>-0.6840000000000001</v>
       </c>
       <c r="J8">
-        <v>0.525</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4450,10 +4453,10 @@
         <v>-1.261</v>
       </c>
       <c r="I9">
-        <v>-0.648</v>
+        <v>-0.776</v>
       </c>
       <c r="J9">
-        <v>0.518</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4482,10 +4485,10 @@
         <v>-2.816</v>
       </c>
       <c r="I10">
-        <v>-1.298</v>
+        <v>-1.093</v>
       </c>
       <c r="J10">
-        <v>0.196</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4514,10 +4517,10 @@
         <v>2.423</v>
       </c>
       <c r="I11">
-        <v>1.17</v>
+        <v>0.985</v>
       </c>
       <c r="J11">
-        <v>0.244</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4546,10 +4549,10 @@
         <v>-1.919</v>
       </c>
       <c r="I12">
-        <v>-0.9340000000000001</v>
+        <v>-1.042</v>
       </c>
       <c r="J12">
-        <v>0.352</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4578,10 +4581,10 @@
         <v>0.8110000000000001</v>
       </c>
       <c r="I13">
-        <v>0.403</v>
+        <v>0.467</v>
       </c>
       <c r="J13">
-        <v>0.6879999999999999</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4610,10 +4613,10 @@
         <v>-0.02</v>
       </c>
       <c r="I14">
-        <v>-0.573</v>
+        <v>-0.5629999999999999</v>
       </c>
       <c r="J14">
-        <v>0.5669999999999999</v>
+        <v>0.573</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4642,10 +4645,10 @@
         <v>-0.027</v>
       </c>
       <c r="I15">
-        <v>-0.711</v>
+        <v>-0.772</v>
       </c>
       <c r="J15">
-        <v>0.478</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4674,10 +4677,10 @@
         <v>-0.022</v>
       </c>
       <c r="I16">
-        <v>-0.585</v>
+        <v>-0.593</v>
       </c>
       <c r="J16">
-        <v>0.5600000000000001</v>
+        <v>0.553</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4706,10 +4709,10 @@
         <v>0.034</v>
       </c>
       <c r="I17">
-        <v>0.927</v>
+        <v>0.979</v>
       </c>
       <c r="J17">
-        <v>0.356</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4738,10 +4741,10 @@
         <v>0.051</v>
       </c>
       <c r="I18">
-        <v>1.453</v>
+        <v>2.188</v>
       </c>
       <c r="J18">
-        <v>0.148</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4770,10 +4773,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.012</v>
+        <v>0.014</v>
       </c>
       <c r="J19">
-        <v>0.991</v>
+        <v>0.989</v>
       </c>
     </row>
   </sheetData>
@@ -4859,10 +4862,10 @@
         <v>5.346</v>
       </c>
       <c r="I2">
-        <v>0.983</v>
+        <v>1.209</v>
       </c>
       <c r="J2">
-        <v>0.327</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4891,10 +4894,10 @@
         <v>3.948</v>
       </c>
       <c r="I3">
-        <v>0.732</v>
+        <v>1.006</v>
       </c>
       <c r="J3">
-        <v>0.466</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4923,10 +4926,10 @@
         <v>3.926</v>
       </c>
       <c r="I4">
-        <v>0.577</v>
+        <v>0.534</v>
       </c>
       <c r="J4">
-        <v>0.5649999999999999</v>
+        <v>0.593</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4955,10 +4958,10 @@
         <v>-1.2</v>
       </c>
       <c r="I5">
-        <v>-0.218</v>
+        <v>-0.188</v>
       </c>
       <c r="J5">
-        <v>0.828</v>
+        <v>0.851</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4987,10 +4990,10 @@
         <v>6.454</v>
       </c>
       <c r="I6">
-        <v>1.284</v>
+        <v>1.7</v>
       </c>
       <c r="J6">
-        <v>0.201</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5019,10 +5022,10 @@
         <v>-3.43</v>
       </c>
       <c r="I7">
-        <v>-0.712</v>
+        <v>-0.627</v>
       </c>
       <c r="J7">
-        <v>0.478</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5048,13 +5051,13 @@
         <v>0.026</v>
       </c>
       <c r="H8">
-        <v>0.008</v>
+        <v>0.057</v>
       </c>
       <c r="I8">
-        <v>0.004</v>
+        <v>0.033</v>
       </c>
       <c r="J8">
-        <v>0.997</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5083,10 +5086,10 @@
         <v>-2.565</v>
       </c>
       <c r="I9">
-        <v>-1.169</v>
+        <v>-1.448</v>
       </c>
       <c r="J9">
-        <v>0.244</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5115,10 +5118,10 @@
         <v>-2.626</v>
       </c>
       <c r="I10">
-        <v>-1.069</v>
+        <v>-0.987</v>
       </c>
       <c r="J10">
-        <v>0.287</v>
+        <v>0.324</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5147,10 +5150,10 @@
         <v>2.268</v>
       </c>
       <c r="I11">
-        <v>0.967</v>
+        <v>0.864</v>
       </c>
       <c r="J11">
-        <v>0.335</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5179,10 +5182,10 @@
         <v>-3.244</v>
       </c>
       <c r="I12">
-        <v>-1.402</v>
+        <v>-1.676</v>
       </c>
       <c r="J12">
-        <v>0.163</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5211,10 +5214,10 @@
         <v>1.015</v>
       </c>
       <c r="I13">
-        <v>0.446</v>
+        <v>0.466</v>
       </c>
       <c r="J13">
-        <v>0.656</v>
+        <v>0.641</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5243,10 +5246,10 @@
         <v>-0.058</v>
       </c>
       <c r="I14">
-        <v>-1.466</v>
+        <v>-1.588</v>
       </c>
       <c r="J14">
-        <v>0.145</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5275,10 +5278,10 @@
         <v>-0.023</v>
       </c>
       <c r="I15">
-        <v>-0.545</v>
+        <v>-0.695</v>
       </c>
       <c r="J15">
-        <v>0.586</v>
+        <v>0.487</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5307,10 +5310,10 @@
         <v>-0.034</v>
       </c>
       <c r="I16">
-        <v>-0.791</v>
+        <v>-0.756</v>
       </c>
       <c r="J16">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5339,10 +5342,10 @@
         <v>0.033</v>
       </c>
       <c r="I17">
-        <v>0.8080000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="J17">
-        <v>0.42</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5371,10 +5374,10 @@
         <v>0.048</v>
       </c>
       <c r="I18">
-        <v>1.189</v>
+        <v>2.023</v>
       </c>
       <c r="J18">
-        <v>0.236</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5403,10 +5406,10 @@
         <v>0.013</v>
       </c>
       <c r="I19">
-        <v>0.329</v>
+        <v>0.405</v>
       </c>
       <c r="J19">
-        <v>0.742</v>
+        <v>0.6850000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5492,10 +5495,10 @@
         <v>6.09</v>
       </c>
       <c r="I2">
-        <v>0.924</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="J2">
-        <v>0.357</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5524,10 +5527,10 @@
         <v>-0.909</v>
       </c>
       <c r="I3">
-        <v>-0.139</v>
+        <v>-0.205</v>
       </c>
       <c r="J3">
-        <v>0.89</v>
+        <v>0.837</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5556,10 +5559,10 @@
         <v>-3.352</v>
       </c>
       <c r="I4">
-        <v>-0.406</v>
+        <v>-0.384</v>
       </c>
       <c r="J4">
-        <v>0.6850000000000001</v>
+        <v>0.701</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5588,10 +5591,10 @@
         <v>-2.308</v>
       </c>
       <c r="I5">
-        <v>-0.346</v>
+        <v>-0.31</v>
       </c>
       <c r="J5">
-        <v>0.73</v>
+        <v>0.757</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5620,10 +5623,10 @@
         <v>2.935</v>
       </c>
       <c r="I6">
-        <v>0.48</v>
+        <v>0.556</v>
       </c>
       <c r="J6">
-        <v>0.632</v>
+        <v>0.578</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5652,10 +5655,10 @@
         <v>1.782</v>
       </c>
       <c r="I7">
-        <v>0.305</v>
+        <v>0.306</v>
       </c>
       <c r="J7">
-        <v>0.761</v>
+        <v>0.759</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5681,13 +5684,13 @@
         <v>0.017</v>
       </c>
       <c r="H8">
-        <v>-0.878</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="I8">
-        <v>-0.325</v>
+        <v>-0.34</v>
       </c>
       <c r="J8">
-        <v>0.746</v>
+        <v>0.734</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5716,10 +5719,10 @@
         <v>0.629</v>
       </c>
       <c r="I9">
-        <v>0.236</v>
+        <v>0.266</v>
       </c>
       <c r="J9">
-        <v>0.8139999999999999</v>
+        <v>0.791</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5736,7 +5739,7 @@
         <v>728</v>
       </c>
       <c r="E10" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="F10">
         <v>200</v>
@@ -5748,10 +5751,10 @@
         <v>-1.143</v>
       </c>
       <c r="I10">
-        <v>-0.383</v>
+        <v>-0.342</v>
       </c>
       <c r="J10">
-        <v>0.702</v>
+        <v>0.732</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5768,7 +5771,7 @@
         <v>729</v>
       </c>
       <c r="E11" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="F11">
         <v>200</v>
@@ -5780,10 +5783,10 @@
         <v>3.349</v>
       </c>
       <c r="I11">
-        <v>1.181</v>
+        <v>1.013</v>
       </c>
       <c r="J11">
-        <v>0.239</v>
+        <v>0.311</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5800,7 +5803,7 @@
         <v>730</v>
       </c>
       <c r="E12" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F12">
         <v>200</v>
@@ -5812,10 +5815,10 @@
         <v>-2.773</v>
       </c>
       <c r="I12">
-        <v>-0.986</v>
+        <v>-1.115</v>
       </c>
       <c r="J12">
-        <v>0.325</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5832,7 +5835,7 @@
         <v>731</v>
       </c>
       <c r="E13" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F13">
         <v>200</v>
@@ -5844,10 +5847,10 @@
         <v>-1.778</v>
       </c>
       <c r="I13">
-        <v>-0.645</v>
+        <v>-0.6919999999999999</v>
       </c>
       <c r="J13">
-        <v>0.52</v>
+        <v>0.489</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5864,7 +5867,7 @@
         <v>732</v>
       </c>
       <c r="E14" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F14">
         <v>200</v>
@@ -5876,10 +5879,10 @@
         <v>-0.068</v>
       </c>
       <c r="I14">
-        <v>-1.414</v>
+        <v>-1.401</v>
       </c>
       <c r="J14">
-        <v>0.159</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5896,7 +5899,7 @@
         <v>733</v>
       </c>
       <c r="E15" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F15">
         <v>200</v>
@@ -5908,10 +5911,10 @@
         <v>-0.021</v>
       </c>
       <c r="I15">
-        <v>-0.418</v>
+        <v>-0.387</v>
       </c>
       <c r="J15">
-        <v>0.677</v>
+        <v>0.699</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5928,7 +5931,7 @@
         <v>734</v>
       </c>
       <c r="E16" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F16">
         <v>200</v>
@@ -5940,10 +5943,10 @@
         <v>-0.024</v>
       </c>
       <c r="I16">
-        <v>-0.465</v>
+        <v>-0.486</v>
       </c>
       <c r="J16">
-        <v>0.642</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5960,7 +5963,7 @@
         <v>735</v>
       </c>
       <c r="E17" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="F17">
         <v>200</v>
@@ -5972,10 +5975,10 @@
         <v>0.013</v>
       </c>
       <c r="I17">
-        <v>0.264</v>
+        <v>0.357</v>
       </c>
       <c r="J17">
-        <v>0.792</v>
+        <v>0.721</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5992,7 +5995,7 @@
         <v>736</v>
       </c>
       <c r="E18" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="F18">
         <v>200</v>
@@ -6004,10 +6007,10 @@
         <v>0.04</v>
       </c>
       <c r="I18">
-        <v>0.828</v>
+        <v>1.094</v>
       </c>
       <c r="J18">
-        <v>0.409</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6024,7 +6027,7 @@
         <v>737</v>
       </c>
       <c r="E19" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F19">
         <v>200</v>
@@ -6036,10 +6039,10 @@
         <v>-0.007</v>
       </c>
       <c r="I19">
-        <v>-0.142</v>
+        <v>-0.175</v>
       </c>
       <c r="J19">
-        <v>0.888</v>
+        <v>0.861</v>
       </c>
     </row>
   </sheetData>
@@ -6104,13 +6107,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E2" t="s">
         <v>808</v>
@@ -6125,10 +6128,10 @@
         <v>-0.249</v>
       </c>
       <c r="I2">
-        <v>-0.06900000000000001</v>
+        <v>-0.078</v>
       </c>
       <c r="J2">
-        <v>0.945</v>
+        <v>0.9379999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6136,13 +6139,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C3" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D3" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="E3" t="s">
         <v>809</v>
@@ -6157,10 +6160,10 @@
         <v>-5.434</v>
       </c>
       <c r="I3">
-        <v>-1.522</v>
+        <v>-1.42</v>
       </c>
       <c r="J3">
-        <v>0.13</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6168,13 +6171,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C4" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D4" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="E4" t="s">
         <v>810</v>
@@ -6189,10 +6192,10 @@
         <v>-0.345</v>
       </c>
       <c r="I4">
-        <v>-0.076</v>
+        <v>-0.06900000000000001</v>
       </c>
       <c r="J4">
-        <v>0.9389999999999999</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6200,13 +6203,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C5" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D5" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E5" t="s">
         <v>811</v>
@@ -6221,10 +6224,10 @@
         <v>-3.641</v>
       </c>
       <c r="I5">
-        <v>-0.996</v>
+        <v>-1.115</v>
       </c>
       <c r="J5">
-        <v>0.321</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6232,13 +6235,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C6" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D6" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E6" t="s">
         <v>812</v>
@@ -6253,10 +6256,10 @@
         <v>-0.169</v>
       </c>
       <c r="I6">
-        <v>-0.05</v>
+        <v>-0.062</v>
       </c>
       <c r="J6">
-        <v>0.96</v>
+        <v>0.951</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6264,13 +6267,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C7" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D7" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="E7" t="s">
         <v>813</v>
@@ -6285,10 +6288,10 @@
         <v>-0.502</v>
       </c>
       <c r="I7">
-        <v>-0.156</v>
+        <v>-0.167</v>
       </c>
       <c r="J7">
-        <v>0.876</v>
+        <v>0.867</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6296,13 +6299,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C8" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D8" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E8" t="s">
         <v>814</v>
@@ -6314,13 +6317,13 @@
         <v>0.055</v>
       </c>
       <c r="H8">
-        <v>0.925</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="I8">
-        <v>0.623</v>
+        <v>0.618</v>
       </c>
       <c r="J8">
-        <v>0.534</v>
+        <v>0.537</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6328,13 +6331,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C9" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D9" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="E9" t="s">
         <v>815</v>
@@ -6349,10 +6352,10 @@
         <v>0.766</v>
       </c>
       <c r="I9">
-        <v>0.523</v>
+        <v>0.514</v>
       </c>
       <c r="J9">
-        <v>0.602</v>
+        <v>0.607</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6360,13 +6363,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C10" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D10" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E10" t="s">
         <v>815</v>
@@ -6381,10 +6384,10 @@
         <v>-0.276</v>
       </c>
       <c r="I10">
-        <v>-0.168</v>
+        <v>-0.143</v>
       </c>
       <c r="J10">
-        <v>0.867</v>
+        <v>0.886</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6392,10 +6395,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C11" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D11" t="s">
         <v>799</v>
@@ -6413,10 +6416,10 @@
         <v>2.408</v>
       </c>
       <c r="I11">
-        <v>1.551</v>
+        <v>1.467</v>
       </c>
       <c r="J11">
-        <v>0.123</v>
+        <v>0.142</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6424,10 +6427,10 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C12" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D12" t="s">
         <v>800</v>
@@ -6445,10 +6448,10 @@
         <v>-0.548</v>
       </c>
       <c r="I12">
-        <v>-0.354</v>
+        <v>-0.394</v>
       </c>
       <c r="J12">
-        <v>0.724</v>
+        <v>0.6929999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6456,10 +6459,10 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C13" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D13" t="s">
         <v>801</v>
@@ -6477,10 +6480,10 @@
         <v>-1.002</v>
       </c>
       <c r="I13">
-        <v>-0.662</v>
+        <v>-0.8090000000000001</v>
       </c>
       <c r="J13">
-        <v>0.509</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6488,10 +6491,10 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C14" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D14" t="s">
         <v>802</v>
@@ -6509,10 +6512,10 @@
         <v>-0.068</v>
       </c>
       <c r="I14">
-        <v>-2.633</v>
+        <v>-2.248</v>
       </c>
       <c r="J14">
-        <v>0.008999999999999999</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6520,10 +6523,10 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C15" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D15" t="s">
         <v>803</v>
@@ -6541,10 +6544,10 @@
         <v>-0.037</v>
       </c>
       <c r="I15">
-        <v>-1.332</v>
+        <v>-1.118</v>
       </c>
       <c r="J15">
-        <v>0.185</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6552,10 +6555,10 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C16" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D16" t="s">
         <v>804</v>
@@ -6573,10 +6576,10 @@
         <v>-0.031</v>
       </c>
       <c r="I16">
-        <v>-1.072</v>
+        <v>-1.285</v>
       </c>
       <c r="J16">
-        <v>0.286</v>
+        <v>0.199</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6584,10 +6587,10 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C17" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D17" t="s">
         <v>805</v>
@@ -6605,10 +6608,10 @@
         <v>0.011</v>
       </c>
       <c r="I17">
-        <v>0.418</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="J17">
-        <v>0.677</v>
+        <v>0.577</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6616,10 +6619,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C18" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D18" t="s">
         <v>806</v>
@@ -6637,10 +6640,10 @@
         <v>0.03</v>
       </c>
       <c r="I18">
-        <v>1.107</v>
+        <v>1.313</v>
       </c>
       <c r="J18">
-        <v>0.27</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6648,10 +6651,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C19" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D19" t="s">
         <v>807</v>
@@ -6669,10 +6672,10 @@
         <v>0.013</v>
       </c>
       <c r="I19">
-        <v>0.494</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="J19">
-        <v>0.622</v>
+        <v>0.495</v>
       </c>
     </row>
   </sheetData>
@@ -6758,10 +6761,10 @@
         <v>6.119</v>
       </c>
       <c r="I2">
-        <v>1.425</v>
+        <v>1.692</v>
       </c>
       <c r="J2">
-        <v>0.156</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6790,10 +6793,10 @@
         <v>-0.633</v>
       </c>
       <c r="I3">
-        <v>-0.148</v>
+        <v>-0.186</v>
       </c>
       <c r="J3">
-        <v>0.883</v>
+        <v>0.853</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6822,10 +6825,10 @@
         <v>8.125</v>
       </c>
       <c r="I4">
-        <v>1.517</v>
+        <v>1.442</v>
       </c>
       <c r="J4">
-        <v>0.131</v>
+        <v>0.149</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6854,10 +6857,10 @@
         <v>-1.195</v>
       </c>
       <c r="I5">
-        <v>-0.274</v>
+        <v>-0.386</v>
       </c>
       <c r="J5">
-        <v>0.785</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6918,10 +6921,10 @@
         <v>-5.191</v>
       </c>
       <c r="I7">
-        <v>-1.365</v>
+        <v>-1.411</v>
       </c>
       <c r="J7">
-        <v>0.174</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6947,13 +6950,13 @@
         <v>0.037</v>
       </c>
       <c r="H8">
-        <v>-0.921</v>
+        <v>-0.879</v>
       </c>
       <c r="I8">
-        <v>-0.521</v>
+        <v>-0.544</v>
       </c>
       <c r="J8">
-        <v>0.603</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6982,10 +6985,10 @@
         <v>-0.402</v>
       </c>
       <c r="I9">
-        <v>-0.23</v>
+        <v>-0.286</v>
       </c>
       <c r="J9">
-        <v>0.8179999999999999</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7002,7 +7005,7 @@
         <v>866</v>
       </c>
       <c r="E10" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="F10">
         <v>200</v>
@@ -7014,10 +7017,10 @@
         <v>-3.675</v>
       </c>
       <c r="I10">
-        <v>-1.904</v>
+        <v>-1.714</v>
       </c>
       <c r="J10">
-        <v>0.059</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7034,7 +7037,7 @@
         <v>867</v>
       </c>
       <c r="E11" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F11">
         <v>200</v>
@@ -7046,10 +7049,10 @@
         <v>1.938</v>
       </c>
       <c r="I11">
-        <v>1.044</v>
+        <v>1.086</v>
       </c>
       <c r="J11">
-        <v>0.298</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7066,7 +7069,7 @@
         <v>868</v>
       </c>
       <c r="E12" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="F12">
         <v>200</v>
@@ -7078,10 +7081,10 @@
         <v>-0.432</v>
       </c>
       <c r="I12">
-        <v>-0.234</v>
+        <v>-0.25</v>
       </c>
       <c r="J12">
-        <v>0.8149999999999999</v>
+        <v>0.802</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7098,7 +7101,7 @@
         <v>869</v>
       </c>
       <c r="E13" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="F13">
         <v>200</v>
@@ -7110,10 +7113,10 @@
         <v>1.513</v>
       </c>
       <c r="I13">
-        <v>0.841</v>
+        <v>1.103</v>
       </c>
       <c r="J13">
-        <v>0.402</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7130,7 +7133,7 @@
         <v>870</v>
       </c>
       <c r="E14" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="F14">
         <v>200</v>
@@ -7142,10 +7145,10 @@
         <v>-0.028</v>
       </c>
       <c r="I14">
-        <v>-0.897</v>
+        <v>-0.827</v>
       </c>
       <c r="J14">
-        <v>0.371</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7162,7 +7165,7 @@
         <v>871</v>
       </c>
       <c r="E15" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="F15">
         <v>200</v>
@@ -7174,10 +7177,10 @@
         <v>-0.017</v>
       </c>
       <c r="I15">
-        <v>-0.5</v>
+        <v>-0.445</v>
       </c>
       <c r="J15">
-        <v>0.618</v>
+        <v>0.657</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7194,7 +7197,7 @@
         <v>872</v>
       </c>
       <c r="E16" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="F16">
         <v>200</v>
@@ -7206,10 +7209,10 @@
         <v>-0.014</v>
       </c>
       <c r="I16">
-        <v>-0.4</v>
+        <v>-0.412</v>
       </c>
       <c r="J16">
-        <v>0.6889999999999999</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7226,7 +7229,7 @@
         <v>873</v>
       </c>
       <c r="E17" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F17">
         <v>200</v>
@@ -7238,10 +7241,10 @@
         <v>0.018</v>
       </c>
       <c r="I17">
-        <v>0.555</v>
+        <v>0.618</v>
       </c>
       <c r="J17">
-        <v>0.58</v>
+        <v>0.536</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7258,7 +7261,7 @@
         <v>874</v>
       </c>
       <c r="E18" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="F18">
         <v>200</v>
@@ -7270,10 +7273,10 @@
         <v>0.043</v>
       </c>
       <c r="I18">
-        <v>1.344</v>
+        <v>1.619</v>
       </c>
       <c r="J18">
-        <v>0.181</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7290,7 +7293,7 @@
         <v>875</v>
       </c>
       <c r="E19" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="F19">
         <v>200</v>
@@ -7302,10 +7305,10 @@
         <v>-0.016</v>
       </c>
       <c r="I19">
-        <v>-0.513</v>
+        <v>-0.771</v>
       </c>
       <c r="J19">
-        <v>0.608</v>
+        <v>0.441</v>
       </c>
     </row>
   </sheetData>
@@ -7374,19 +7377,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D2" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="E2" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="F2" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="G2">
         <v>200</v>
@@ -7398,10 +7401,10 @@
         <v>2.976</v>
       </c>
       <c r="J2">
-        <v>0.589</v>
+        <v>0.766</v>
       </c>
       <c r="K2">
-        <v>0.556</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7409,19 +7412,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C3" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D3" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E3" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="F3" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="G3">
         <v>200</v>
@@ -7433,10 +7436,10 @@
         <v>0.726</v>
       </c>
       <c r="J3">
-        <v>0.145</v>
+        <v>0.204</v>
       </c>
       <c r="K3">
-        <v>0.885</v>
+        <v>0.839</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7444,19 +7447,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C4" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D4" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E4" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="F4" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="G4">
         <v>200</v>
@@ -7468,10 +7471,10 @@
         <v>6.156</v>
       </c>
       <c r="J4">
-        <v>0.979</v>
+        <v>0.873</v>
       </c>
       <c r="K4">
-        <v>0.329</v>
+        <v>0.383</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7479,19 +7482,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C5" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D5" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E5" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="F5" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="G5">
         <v>200</v>
@@ -7503,10 +7506,10 @@
         <v>-1.89</v>
       </c>
       <c r="J5">
-        <v>-0.37</v>
+        <v>-0.494</v>
       </c>
       <c r="K5">
-        <v>0.712</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7514,19 +7517,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C6" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D6" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E6" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="F6" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="G6">
         <v>200</v>
@@ -7538,10 +7541,10 @@
         <v>2.061</v>
       </c>
       <c r="J6">
-        <v>0.441</v>
+        <v>0.504</v>
       </c>
       <c r="K6">
-        <v>0.66</v>
+        <v>0.614</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -7549,19 +7552,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C7" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D7" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E7" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="F7" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="G7">
         <v>200</v>
@@ -7573,10 +7576,10 @@
         <v>-3.533</v>
       </c>
       <c r="J7">
-        <v>-0.792</v>
+        <v>-0.645</v>
       </c>
       <c r="K7">
-        <v>0.43</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -7584,19 +7587,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C8" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D8" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E8" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="F8" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="G8">
         <v>200</v>
@@ -7605,13 +7608,13 @@
         <v>0.029</v>
       </c>
       <c r="I8">
-        <v>1.066</v>
+        <v>1.113</v>
       </c>
       <c r="J8">
-        <v>0.516</v>
+        <v>0.646</v>
       </c>
       <c r="K8">
-        <v>0.607</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -7619,16 +7622,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C9" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D9" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E9" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="F9" t="s">
         <v>605</v>
@@ -7643,10 +7646,10 @@
         <v>-0.898</v>
       </c>
       <c r="J9">
-        <v>-0.44</v>
+        <v>-0.643</v>
       </c>
       <c r="K9">
-        <v>0.66</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7654,19 +7657,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C10" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D10" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E10" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="F10" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="G10">
         <v>200</v>
@@ -7678,10 +7681,10 @@
         <v>-3.912</v>
       </c>
       <c r="J10">
-        <v>-1.73</v>
+        <v>-1.407</v>
       </c>
       <c r="K10">
-        <v>0.08599999999999999</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -7689,16 +7692,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C11" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D11" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E11" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="F11" t="s">
         <v>605</v>
@@ -7713,10 +7716,10 @@
         <v>1.592</v>
       </c>
       <c r="J11">
-        <v>0.732</v>
+        <v>0.803</v>
       </c>
       <c r="K11">
-        <v>0.465</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7724,19 +7727,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C12" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D12" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E12" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="F12" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="G12">
         <v>200</v>
@@ -7748,10 +7751,10 @@
         <v>-1.268</v>
       </c>
       <c r="J12">
-        <v>-0.589</v>
+        <v>-0.668</v>
       </c>
       <c r="K12">
-        <v>0.5570000000000001</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -7759,19 +7762,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C13" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D13" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E13" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="F13" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="G13">
         <v>200</v>
@@ -7783,10 +7786,10 @@
         <v>0.441</v>
       </c>
       <c r="J13">
-        <v>0.209</v>
+        <v>0.26</v>
       </c>
       <c r="K13">
-        <v>0.835</v>
+        <v>0.795</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -7794,19 +7797,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C14" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D14" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E14" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="F14" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="G14">
         <v>200</v>
@@ -7818,10 +7821,10 @@
         <v>-0.067</v>
       </c>
       <c r="J14">
-        <v>-1.835</v>
+        <v>-1.815</v>
       </c>
       <c r="K14">
-        <v>0.06900000000000001</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -7829,19 +7832,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C15" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D15" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="E15" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F15" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="G15">
         <v>200</v>
@@ -7853,10 +7856,10 @@
         <v>-0.02</v>
       </c>
       <c r="J15">
-        <v>-0.508</v>
+        <v>-0.494</v>
       </c>
       <c r="K15">
-        <v>0.612</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -7864,19 +7867,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C16" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D16" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E16" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="F16" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="G16">
         <v>200</v>
@@ -7888,10 +7891,10 @@
         <v>-0.028</v>
       </c>
       <c r="J16">
-        <v>-0.694</v>
+        <v>-0.614</v>
       </c>
       <c r="K16">
-        <v>0.489</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -7899,19 +7902,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C17" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D17" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E17" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F17" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="G17">
         <v>200</v>
@@ -7923,10 +7926,10 @@
         <v>0.006</v>
       </c>
       <c r="J17">
-        <v>0.154</v>
+        <v>0.193</v>
       </c>
       <c r="K17">
-        <v>0.878</v>
+        <v>0.847</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -7934,19 +7937,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C18" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D18" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E18" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="F18" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="G18">
         <v>200</v>
@@ -7958,10 +7961,10 @@
         <v>0.045</v>
       </c>
       <c r="J18">
-        <v>1.21</v>
+        <v>1.468</v>
       </c>
       <c r="K18">
-        <v>0.228</v>
+        <v>0.142</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -7969,19 +7972,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C19" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D19" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E19" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="F19" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="G19">
         <v>200</v>
@@ -7993,10 +7996,10 @@
         <v>0.011</v>
       </c>
       <c r="J19">
-        <v>0.312</v>
+        <v>0.385</v>
       </c>
       <c r="K19">
-        <v>0.756</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -8065,19 +8068,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C2" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D2" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E2" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="F2" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="G2">
         <v>200</v>
@@ -8089,10 +8092,10 @@
         <v>3.353</v>
       </c>
       <c r="J2">
-        <v>0.5590000000000001</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="K2">
-        <v>0.577</v>
+        <v>0.489</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -8100,16 +8103,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C3" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D3" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E3" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="F3" t="s">
         <v>478</v>
@@ -8124,10 +8127,10 @@
         <v>-3.769</v>
       </c>
       <c r="J3">
-        <v>-0.634</v>
+        <v>-0.966</v>
       </c>
       <c r="K3">
-        <v>0.527</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -8135,19 +8138,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C4" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="D4" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E4" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="F4" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="G4">
         <v>200</v>
@@ -8159,10 +8162,10 @@
         <v>-2.026</v>
       </c>
       <c r="J4">
-        <v>-0.27</v>
+        <v>-0.246</v>
       </c>
       <c r="K4">
-        <v>0.787</v>
+        <v>0.806</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -8170,19 +8173,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C5" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D5" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="E5" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F5" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="G5">
         <v>200</v>
@@ -8194,10 +8197,10 @@
         <v>-1.098</v>
       </c>
       <c r="J5">
-        <v>-0.181</v>
+        <v>-0.225</v>
       </c>
       <c r="K5">
-        <v>0.857</v>
+        <v>0.822</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -8205,19 +8208,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C6" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D6" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E6" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="F6" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="G6">
         <v>200</v>
@@ -8229,10 +8232,10 @@
         <v>-3.141</v>
       </c>
       <c r="J6">
-        <v>-0.5649999999999999</v>
+        <v>-0.632</v>
       </c>
       <c r="K6">
-        <v>0.573</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8240,19 +8243,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C7" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D7" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E7" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="F7" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="G7">
         <v>200</v>
@@ -8264,10 +8267,10 @@
         <v>-0.569</v>
       </c>
       <c r="J7">
-        <v>-0.107</v>
+        <v>-0.076</v>
       </c>
       <c r="K7">
-        <v>0.915</v>
+        <v>0.9389999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8275,19 +8278,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C8" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D8" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="E8" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="F8" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="G8">
         <v>200</v>
@@ -8296,13 +8299,13 @@
         <v>0.02</v>
       </c>
       <c r="I8">
-        <v>0.5629999999999999</v>
+        <v>0.627</v>
       </c>
       <c r="J8">
-        <v>0.229</v>
+        <v>0.366</v>
       </c>
       <c r="K8">
-        <v>0.819</v>
+        <v>0.714</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8310,19 +8313,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C9" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D9" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="E9" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="F9" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="G9">
         <v>200</v>
@@ -8334,10 +8337,10 @@
         <v>1.372</v>
       </c>
       <c r="J9">
-        <v>0.5659999999999999</v>
+        <v>0.769</v>
       </c>
       <c r="K9">
-        <v>0.572</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8345,19 +8348,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C10" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D10" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E10" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F10" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="G10">
         <v>200</v>
@@ -8369,10 +8372,10 @@
         <v>-1.07</v>
       </c>
       <c r="J10">
-        <v>-0.394</v>
+        <v>-0.326</v>
       </c>
       <c r="K10">
-        <v>0.694</v>
+        <v>0.744</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8380,19 +8383,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C11" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D11" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E11" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F11" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="G11">
         <v>200</v>
@@ -8404,10 +8407,10 @@
         <v>1.827</v>
       </c>
       <c r="J11">
-        <v>0.707</v>
+        <v>0.728</v>
       </c>
       <c r="K11">
-        <v>0.481</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8415,16 +8418,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C12" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D12" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="E12" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="F12" t="s">
         <v>481</v>
@@ -8439,10 +8442,10 @@
         <v>0.262</v>
       </c>
       <c r="J12">
-        <v>0.102</v>
+        <v>0.122</v>
       </c>
       <c r="K12">
-        <v>0.919</v>
+        <v>0.903</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8450,19 +8453,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C13" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D13" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="E13" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="F13" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="G13">
         <v>200</v>
@@ -8474,10 +8477,10 @@
         <v>-1.448</v>
       </c>
       <c r="J13">
-        <v>-0.578</v>
+        <v>-0.52</v>
       </c>
       <c r="K13">
-        <v>0.5639999999999999</v>
+        <v>0.603</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8485,19 +8488,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C14" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="D14" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="E14" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="F14" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="G14">
         <v>200</v>
@@ -8509,10 +8512,10 @@
         <v>-0.067</v>
       </c>
       <c r="J14">
-        <v>-1.53</v>
+        <v>-1.486</v>
       </c>
       <c r="K14">
-        <v>0.128</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8520,19 +8523,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C15" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="D15" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E15" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="F15" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="G15">
         <v>200</v>
@@ -8544,10 +8547,10 @@
         <v>-0.01</v>
       </c>
       <c r="J15">
-        <v>-0.215</v>
+        <v>-0.151</v>
       </c>
       <c r="K15">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8555,19 +8558,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C16" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D16" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="E16" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="F16" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="G16">
         <v>200</v>
@@ -8579,10 +8582,10 @@
         <v>-0.027</v>
       </c>
       <c r="J16">
-        <v>-0.569</v>
+        <v>-0.533</v>
       </c>
       <c r="K16">
-        <v>0.57</v>
+        <v>0.594</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8590,19 +8593,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C17" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D17" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E17" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="F17" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="G17">
         <v>200</v>
@@ -8614,10 +8617,10 @@
         <v>-0.025</v>
       </c>
       <c r="J17">
-        <v>-0.556</v>
+        <v>-0.697</v>
       </c>
       <c r="K17">
-        <v>0.579</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8625,19 +8628,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C18" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D18" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="E18" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="F18" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="G18">
         <v>200</v>
@@ -8649,10 +8652,10 @@
         <v>0.032</v>
       </c>
       <c r="J18">
-        <v>0.711</v>
+        <v>0.904</v>
       </c>
       <c r="K18">
-        <v>0.478</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8660,19 +8663,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C19" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D19" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="E19" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="F19" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="G19">
         <v>200</v>
@@ -8684,10 +8687,10 @@
         <v>-0.001</v>
       </c>
       <c r="J19">
-        <v>-0.028</v>
+        <v>-0.039</v>
       </c>
       <c r="K19">
-        <v>0.977</v>
+        <v>0.969</v>
       </c>
     </row>
   </sheetData>
@@ -8766,10 +8769,10 @@
         <v>7.17</v>
       </c>
       <c r="H2">
-        <v>1.221</v>
+        <v>1.39</v>
       </c>
       <c r="I2">
-        <v>0.224</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -8795,10 +8798,10 @@
         <v>-3.807</v>
       </c>
       <c r="H3">
-        <v>-0.652</v>
+        <v>-0.761</v>
       </c>
       <c r="I3">
-        <v>0.515</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -8824,10 +8827,10 @@
         <v>6.158</v>
       </c>
       <c r="H4">
-        <v>0.838</v>
+        <v>0.68</v>
       </c>
       <c r="I4">
-        <v>0.404</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -8853,10 +8856,10 @@
         <v>-2.723</v>
       </c>
       <c r="H5">
-        <v>-0.457</v>
+        <v>-0.44</v>
       </c>
       <c r="I5">
-        <v>0.648</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -8882,10 +8885,10 @@
         <v>5.165</v>
       </c>
       <c r="H6">
-        <v>0.948</v>
+        <v>0.977</v>
       </c>
       <c r="I6">
-        <v>0.345</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -8911,10 +8914,10 @@
         <v>-2.11</v>
       </c>
       <c r="H7">
-        <v>-0.404</v>
+        <v>-0.443</v>
       </c>
       <c r="I7">
-        <v>0.6870000000000001</v>
+        <v>0.658</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -8937,13 +8940,13 @@
         <v>0.02</v>
       </c>
       <c r="G8">
-        <v>-2.213</v>
+        <v>-2.242</v>
       </c>
       <c r="H8">
-        <v>-0.919</v>
+        <v>-1.041</v>
       </c>
       <c r="I8">
-        <v>0.36</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -8969,10 +8972,10 @@
         <v>0.832</v>
       </c>
       <c r="H9">
-        <v>0.349</v>
+        <v>0.301</v>
       </c>
       <c r="I9">
-        <v>0.727</v>
+        <v>0.764</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -8998,10 +9001,10 @@
         <v>-1.555</v>
       </c>
       <c r="H10">
-        <v>-0.584</v>
+        <v>-0.533</v>
       </c>
       <c r="I10">
-        <v>0.5600000000000001</v>
+        <v>0.594</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -9027,10 +9030,10 @@
         <v>2.788</v>
       </c>
       <c r="H11">
-        <v>1.101</v>
+        <v>0.945</v>
       </c>
       <c r="I11">
-        <v>0.273</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -9056,10 +9059,10 @@
         <v>-3.261</v>
       </c>
       <c r="H12">
-        <v>-1.302</v>
+        <v>-1.235</v>
       </c>
       <c r="I12">
-        <v>0.195</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -9085,10 +9088,10 @@
         <v>1.364</v>
       </c>
       <c r="H13">
-        <v>0.554</v>
+        <v>0.547</v>
       </c>
       <c r="I13">
-        <v>0.58</v>
+        <v>0.584</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -9114,10 +9117,10 @@
         <v>-0.002</v>
       </c>
       <c r="H14">
-        <v>-0.036</v>
+        <v>-0.039</v>
       </c>
       <c r="I14">
-        <v>0.971</v>
+        <v>0.969</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -9143,10 +9146,10 @@
         <v>-0.036</v>
       </c>
       <c r="H15">
-        <v>-0.785</v>
+        <v>-0.793</v>
       </c>
       <c r="I15">
-        <v>0.434</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -9172,10 +9175,10 @@
         <v>0.011</v>
       </c>
       <c r="H16">
-        <v>0.231</v>
+        <v>0.264</v>
       </c>
       <c r="I16">
-        <v>0.8169999999999999</v>
+        <v>0.791</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -9201,10 +9204,10 @@
         <v>0.093</v>
       </c>
       <c r="H17">
-        <v>2.12</v>
+        <v>2.186</v>
       </c>
       <c r="I17">
-        <v>0.036</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -9230,10 +9233,10 @@
         <v>0.053</v>
       </c>
       <c r="H18">
-        <v>1.211</v>
+        <v>1.937</v>
       </c>
       <c r="I18">
-        <v>0.228</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -9259,10 +9262,10 @@
         <v>-0.056</v>
       </c>
       <c r="H19">
-        <v>-1.345</v>
+        <v>-1.648</v>
       </c>
       <c r="I19">
-        <v>0.181</v>
+        <v>0.099</v>
       </c>
     </row>
   </sheetData>
@@ -9348,10 +9351,10 @@
         <v>4.443</v>
       </c>
       <c r="I2">
-        <v>0.6850000000000001</v>
+        <v>0.705</v>
       </c>
       <c r="J2">
-        <v>0.494</v>
+        <v>0.481</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9380,10 +9383,10 @@
         <v>-1.976</v>
       </c>
       <c r="I3">
-        <v>-0.307</v>
+        <v>-0.396</v>
       </c>
       <c r="J3">
-        <v>0.759</v>
+        <v>0.6919999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9412,10 +9415,10 @@
         <v>3.008</v>
       </c>
       <c r="I4">
-        <v>0.371</v>
+        <v>0.323</v>
       </c>
       <c r="J4">
-        <v>0.711</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9444,10 +9447,10 @@
         <v>-6.757</v>
       </c>
       <c r="I5">
-        <v>-1.034</v>
+        <v>-1.098</v>
       </c>
       <c r="J5">
-        <v>0.303</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9476,10 +9479,10 @@
         <v>3.502</v>
       </c>
       <c r="I6">
-        <v>0.583</v>
+        <v>0.524</v>
       </c>
       <c r="J6">
-        <v>0.5610000000000001</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9508,10 +9511,10 @@
         <v>-2.758</v>
       </c>
       <c r="I7">
-        <v>-0.48</v>
+        <v>-0.477</v>
       </c>
       <c r="J7">
-        <v>0.632</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9537,13 +9540,13 @@
         <v>0.017</v>
       </c>
       <c r="H8">
-        <v>-0.512</v>
+        <v>-0.5580000000000001</v>
       </c>
       <c r="I8">
-        <v>-0.193</v>
+        <v>-0.207</v>
       </c>
       <c r="J8">
-        <v>0.847</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9572,10 +9575,10 @@
         <v>-0.855</v>
       </c>
       <c r="I9">
-        <v>-0.326</v>
+        <v>-0.301</v>
       </c>
       <c r="J9">
-        <v>0.745</v>
+        <v>0.763</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9604,10 +9607,10 @@
         <v>-1.082</v>
       </c>
       <c r="I10">
-        <v>-0.369</v>
+        <v>-0.371</v>
       </c>
       <c r="J10">
-        <v>0.713</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -9636,10 +9639,10 @@
         <v>4.571</v>
       </c>
       <c r="I11">
-        <v>1.648</v>
+        <v>1.582</v>
       </c>
       <c r="J11">
-        <v>0.101</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -9668,10 +9671,10 @@
         <v>-2.513</v>
       </c>
       <c r="I12">
-        <v>-0.91</v>
+        <v>-0.801</v>
       </c>
       <c r="J12">
-        <v>0.364</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -9700,10 +9703,10 @@
         <v>1.713</v>
       </c>
       <c r="I13">
-        <v>0.633</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J13">
-        <v>0.528</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -9732,10 +9735,10 @@
         <v>-0.029</v>
       </c>
       <c r="I14">
-        <v>-0.616</v>
+        <v>-0.828</v>
       </c>
       <c r="J14">
-        <v>0.539</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -9764,10 +9767,10 @@
         <v>-0.018</v>
       </c>
       <c r="I15">
-        <v>-0.352</v>
+        <v>-0.438</v>
       </c>
       <c r="J15">
-        <v>0.725</v>
+        <v>0.661</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -9796,10 +9799,10 @@
         <v>-0.021</v>
       </c>
       <c r="I16">
-        <v>-0.418</v>
+        <v>-0.423</v>
       </c>
       <c r="J16">
-        <v>0.677</v>
+        <v>0.672</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -9828,10 +9831,10 @@
         <v>0.07199999999999999</v>
       </c>
       <c r="I17">
-        <v>1.478</v>
+        <v>1.655</v>
       </c>
       <c r="J17">
-        <v>0.141</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -9860,10 +9863,10 @@
         <v>0.054</v>
       </c>
       <c r="I18">
-        <v>1.134</v>
+        <v>1.68</v>
       </c>
       <c r="J18">
-        <v>0.259</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -9892,10 +9895,10 @@
         <v>-0.052</v>
       </c>
       <c r="I19">
-        <v>-1.12</v>
+        <v>-1.172</v>
       </c>
       <c r="J19">
-        <v>0.264</v>
+        <v>0.241</v>
       </c>
     </row>
   </sheetData>
@@ -9981,10 +9984,10 @@
         <v>2.806</v>
       </c>
       <c r="I2">
-        <v>0.371</v>
+        <v>0.373</v>
       </c>
       <c r="J2">
-        <v>0.711</v>
+        <v>0.709</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10013,10 +10016,10 @@
         <v>-8.173999999999999</v>
       </c>
       <c r="I3">
-        <v>-1.094</v>
+        <v>-1.145</v>
       </c>
       <c r="J3">
-        <v>0.276</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10045,10 +10048,10 @@
         <v>-4.632</v>
       </c>
       <c r="I4">
-        <v>-0.49</v>
+        <v>-0.503</v>
       </c>
       <c r="J4">
-        <v>0.625</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10077,10 +10080,10 @@
         <v>-8.079000000000001</v>
       </c>
       <c r="I5">
-        <v>-1.06</v>
+        <v>-1.115</v>
       </c>
       <c r="J5">
-        <v>0.291</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10109,10 +10112,10 @@
         <v>0.855</v>
       </c>
       <c r="I6">
-        <v>0.122</v>
+        <v>0.109</v>
       </c>
       <c r="J6">
-        <v>0.903</v>
+        <v>0.913</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10141,10 +10144,10 @@
         <v>5.223</v>
       </c>
       <c r="I7">
-        <v>0.781</v>
+        <v>0.884</v>
       </c>
       <c r="J7">
-        <v>0.436</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10170,13 +10173,13 @@
         <v>0.012</v>
       </c>
       <c r="H8">
-        <v>0.378</v>
+        <v>0.339</v>
       </c>
       <c r="I8">
-        <v>0.122</v>
+        <v>0.109</v>
       </c>
       <c r="J8">
-        <v>0.903</v>
+        <v>0.913</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10205,10 +10208,10 @@
         <v>1.769</v>
       </c>
       <c r="I9">
-        <v>0.579</v>
+        <v>0.511</v>
       </c>
       <c r="J9">
-        <v>0.5629999999999999</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10237,10 +10240,10 @@
         <v>0.727</v>
       </c>
       <c r="I10">
-        <v>0.213</v>
+        <v>0.22</v>
       </c>
       <c r="J10">
-        <v>0.832</v>
+        <v>0.826</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10269,10 +10272,10 @@
         <v>6.635</v>
       </c>
       <c r="I11">
-        <v>2.061</v>
+        <v>1.883</v>
       </c>
       <c r="J11">
-        <v>0.041</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10301,10 +10304,10 @@
         <v>-2.342</v>
       </c>
       <c r="I12">
-        <v>-0.726</v>
+        <v>-0.735</v>
       </c>
       <c r="J12">
-        <v>0.469</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10333,10 +10336,10 @@
         <v>-2.325</v>
       </c>
       <c r="I13">
-        <v>-0.737</v>
+        <v>-0.902</v>
       </c>
       <c r="J13">
-        <v>0.462</v>
+        <v>0.367</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10365,10 +10368,10 @@
         <v>-0.057</v>
       </c>
       <c r="I14">
-        <v>-1.041</v>
+        <v>-1.102</v>
       </c>
       <c r="J14">
-        <v>0.3</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10397,10 +10400,10 @@
         <v>0.011</v>
       </c>
       <c r="I15">
-        <v>0.189</v>
+        <v>0.213</v>
       </c>
       <c r="J15">
-        <v>0.85</v>
+        <v>0.831</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10429,10 +10432,10 @@
         <v>-0.002</v>
       </c>
       <c r="I16">
-        <v>-0.039</v>
+        <v>-0.045</v>
       </c>
       <c r="J16">
-        <v>0.969</v>
+        <v>0.964</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10461,10 +10464,10 @@
         <v>0.062</v>
       </c>
       <c r="I17">
-        <v>1.082</v>
+        <v>1.426</v>
       </c>
       <c r="J17">
-        <v>0.281</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10493,10 +10496,10 @@
         <v>0.077</v>
       </c>
       <c r="I18">
-        <v>1.375</v>
+        <v>1.681</v>
       </c>
       <c r="J18">
-        <v>0.171</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10525,10 +10528,10 @@
         <v>-0.064</v>
       </c>
       <c r="I19">
-        <v>-1.191</v>
+        <v>-1.411</v>
       </c>
       <c r="J19">
-        <v>0.235</v>
+        <v>0.158</v>
       </c>
     </row>
   </sheetData>
@@ -10607,10 +10610,10 @@
         <v>3.369</v>
       </c>
       <c r="H2">
-        <v>0.806</v>
+        <v>0.763</v>
       </c>
       <c r="I2">
-        <v>0.421</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -10636,10 +10639,10 @@
         <v>-4.411</v>
       </c>
       <c r="H3">
-        <v>-1.067</v>
+        <v>-1.037</v>
       </c>
       <c r="I3">
-        <v>0.287</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -10665,10 +10668,10 @@
         <v>-2.411</v>
       </c>
       <c r="H4">
-        <v>-0.461</v>
+        <v>-0.455</v>
       </c>
       <c r="I4">
-        <v>0.645</v>
+        <v>0.649</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -10694,10 +10697,10 @@
         <v>-1.96</v>
       </c>
       <c r="H5">
-        <v>-0.464</v>
+        <v>-0.408</v>
       </c>
       <c r="I5">
-        <v>0.643</v>
+        <v>0.6830000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -10723,10 +10726,10 @@
         <v>3.489</v>
       </c>
       <c r="H6">
-        <v>0.902</v>
+        <v>1.075</v>
       </c>
       <c r="I6">
-        <v>0.368</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -10752,10 +10755,10 @@
         <v>-1.026</v>
       </c>
       <c r="H7">
-        <v>-0.277</v>
+        <v>-0.227</v>
       </c>
       <c r="I7">
-        <v>0.782</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -10778,13 +10781,13 @@
         <v>0.044</v>
       </c>
       <c r="G8">
-        <v>-0.657</v>
+        <v>-0.699</v>
       </c>
       <c r="H8">
-        <v>-0.383</v>
+        <v>-0.384</v>
       </c>
       <c r="I8">
-        <v>0.702</v>
+        <v>0.701</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -10810,10 +10813,10 @@
         <v>0.584</v>
       </c>
       <c r="H9">
-        <v>0.345</v>
+        <v>0.282</v>
       </c>
       <c r="I9">
-        <v>0.73</v>
+        <v>0.778</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -10839,10 +10842,10 @@
         <v>1.327</v>
       </c>
       <c r="H10">
-        <v>0.703</v>
+        <v>0.662</v>
       </c>
       <c r="I10">
-        <v>0.483</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -10868,10 +10871,10 @@
         <v>1.587</v>
       </c>
       <c r="H11">
-        <v>0.882</v>
+        <v>0.667</v>
       </c>
       <c r="I11">
-        <v>0.379</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -10897,10 +10900,10 @@
         <v>-1.713</v>
       </c>
       <c r="H12">
-        <v>-0.962</v>
+        <v>-0.98</v>
       </c>
       <c r="I12">
-        <v>0.338</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -10926,10 +10929,10 @@
         <v>-0.289</v>
       </c>
       <c r="H13">
-        <v>-0.165</v>
+        <v>-0.143</v>
       </c>
       <c r="I13">
-        <v>0.869</v>
+        <v>0.886</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -10955,10 +10958,10 @@
         <v>-0.062</v>
       </c>
       <c r="H14">
-        <v>-2.047</v>
+        <v>-1.893</v>
       </c>
       <c r="I14">
-        <v>0.042</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -10984,10 +10987,10 @@
         <v>-0.033</v>
       </c>
       <c r="H15">
-        <v>-1.002</v>
+        <v>-0.746</v>
       </c>
       <c r="I15">
-        <v>0.318</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -11013,10 +11016,10 @@
         <v>-0.015</v>
       </c>
       <c r="H16">
-        <v>-0.456</v>
+        <v>-0.403</v>
       </c>
       <c r="I16">
-        <v>0.649</v>
+        <v>0.6870000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -11042,10 +11045,10 @@
         <v>0.051</v>
       </c>
       <c r="H17">
-        <v>1.613</v>
+        <v>1.912</v>
       </c>
       <c r="I17">
-        <v>0.109</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -11071,10 +11074,10 @@
         <v>0.038</v>
       </c>
       <c r="H18">
-        <v>1.235</v>
+        <v>1.701</v>
       </c>
       <c r="I18">
-        <v>0.219</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -11100,10 +11103,10 @@
         <v>0.032</v>
       </c>
       <c r="H19">
-        <v>1.082</v>
+        <v>1.045</v>
       </c>
       <c r="I19">
-        <v>0.281</v>
+        <v>0.296</v>
       </c>
     </row>
   </sheetData>
@@ -11182,10 +11185,10 @@
         <v>10.448</v>
       </c>
       <c r="H2">
-        <v>1.89</v>
+        <v>1.669</v>
       </c>
       <c r="I2">
-        <v>0.061</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -11211,10 +11214,10 @@
         <v>2.404</v>
       </c>
       <c r="H3">
-        <v>0.434</v>
+        <v>0.48</v>
       </c>
       <c r="I3">
-        <v>0.665</v>
+        <v>0.631</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -11240,10 +11243,10 @@
         <v>7.565</v>
       </c>
       <c r="H4">
-        <v>1.087</v>
+        <v>1.069</v>
       </c>
       <c r="I4">
-        <v>0.279</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -11269,10 +11272,10 @@
         <v>0.266</v>
       </c>
       <c r="H5">
-        <v>0.047</v>
+        <v>0.039</v>
       </c>
       <c r="I5">
-        <v>0.963</v>
+        <v>0.969</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -11298,10 +11301,10 @@
         <v>0.619</v>
       </c>
       <c r="H6">
-        <v>0.12</v>
+        <v>0.099</v>
       </c>
       <c r="I6">
-        <v>0.905</v>
+        <v>0.921</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -11327,10 +11330,10 @@
         <v>-6.642</v>
       </c>
       <c r="H7">
-        <v>-1.35</v>
+        <v>-1.21</v>
       </c>
       <c r="I7">
-        <v>0.179</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -11353,13 +11356,13 @@
         <v>0.024</v>
       </c>
       <c r="G8">
-        <v>-2.863</v>
+        <v>-2.854</v>
       </c>
       <c r="H8">
-        <v>-1.257</v>
+        <v>-1.504</v>
       </c>
       <c r="I8">
-        <v>0.21</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -11385,10 +11388,10 @@
         <v>-2.527</v>
       </c>
       <c r="H9">
-        <v>-1.124</v>
+        <v>-0.999</v>
       </c>
       <c r="I9">
-        <v>0.263</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -11414,10 +11417,10 @@
         <v>-2.533</v>
       </c>
       <c r="H10">
-        <v>-1.006</v>
+        <v>-1.03</v>
       </c>
       <c r="I10">
-        <v>0.316</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -11443,10 +11446,10 @@
         <v>1.297</v>
       </c>
       <c r="H11">
-        <v>0.538</v>
+        <v>0.426</v>
       </c>
       <c r="I11">
-        <v>0.591</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -11472,10 +11475,10 @@
         <v>-1.034</v>
       </c>
       <c r="H12">
-        <v>-0.434</v>
+        <v>-0.323</v>
       </c>
       <c r="I12">
-        <v>0.665</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -11501,10 +11504,10 @@
         <v>2.526</v>
       </c>
       <c r="H13">
-        <v>1.086</v>
+        <v>0.963</v>
       </c>
       <c r="I13">
-        <v>0.279</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -11530,10 +11533,10 @@
         <v>-0.014</v>
       </c>
       <c r="H14">
-        <v>-0.352</v>
+        <v>-0.308</v>
       </c>
       <c r="I14">
-        <v>0.725</v>
+        <v>0.758</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -11559,10 +11562,10 @@
         <v>-0.027</v>
       </c>
       <c r="H15">
-        <v>-0.627</v>
+        <v>-0.583</v>
       </c>
       <c r="I15">
-        <v>0.532</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -11588,10 +11591,10 @@
         <v>-0.011</v>
       </c>
       <c r="H16">
-        <v>-0.247</v>
+        <v>-0.232</v>
       </c>
       <c r="I16">
-        <v>0.805</v>
+        <v>0.8159999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -11617,10 +11620,10 @@
         <v>0.096</v>
       </c>
       <c r="H17">
-        <v>2.307</v>
+        <v>2.372</v>
       </c>
       <c r="I17">
-        <v>0.022</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -11646,10 +11649,10 @@
         <v>0.078</v>
       </c>
       <c r="H18">
-        <v>1.917</v>
+        <v>2.107</v>
       </c>
       <c r="I18">
-        <v>0.057</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -11675,10 +11678,10 @@
         <v>-0.014</v>
       </c>
       <c r="H19">
-        <v>-0.353</v>
+        <v>-0.389</v>
       </c>
       <c r="I19">
-        <v>0.724</v>
+        <v>0.697</v>
       </c>
     </row>
   </sheetData>
@@ -11764,10 +11767,10 @@
         <v>6.443</v>
       </c>
       <c r="I2">
-        <v>1.069</v>
+        <v>1.103</v>
       </c>
       <c r="J2">
-        <v>0.287</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11796,10 +11799,10 @@
         <v>5.077</v>
       </c>
       <c r="I3">
-        <v>0.849</v>
+        <v>0.898</v>
       </c>
       <c r="J3">
-        <v>0.397</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11828,10 +11831,10 @@
         <v>2.431</v>
       </c>
       <c r="I4">
-        <v>0.322</v>
+        <v>0.334</v>
       </c>
       <c r="J4">
-        <v>0.748</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11860,10 +11863,10 @@
         <v>-0.667</v>
       </c>
       <c r="I5">
-        <v>-0.109</v>
+        <v>-0.097</v>
       </c>
       <c r="J5">
-        <v>0.913</v>
+        <v>0.923</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11892,10 +11895,10 @@
         <v>4.824</v>
       </c>
       <c r="I6">
-        <v>0.863</v>
+        <v>0.753</v>
       </c>
       <c r="J6">
-        <v>0.389</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11924,10 +11927,10 @@
         <v>-6.793</v>
       </c>
       <c r="I7">
-        <v>-1.276</v>
+        <v>-1.024</v>
       </c>
       <c r="J7">
-        <v>0.204</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11953,13 +11956,13 @@
         <v>0.021</v>
       </c>
       <c r="H8">
-        <v>-0.374</v>
+        <v>-0.371</v>
       </c>
       <c r="I8">
-        <v>-0.151</v>
+        <v>-0.175</v>
       </c>
       <c r="J8">
-        <v>0.88</v>
+        <v>0.861</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11988,10 +11991,10 @@
         <v>-3.581</v>
       </c>
       <c r="I9">
-        <v>-1.477</v>
+        <v>-1.397</v>
       </c>
       <c r="J9">
-        <v>0.142</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12020,10 +12023,10 @@
         <v>-1.641</v>
       </c>
       <c r="I10">
-        <v>-0.601</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="J10">
-        <v>0.549</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12052,10 +12055,10 @@
         <v>1.404</v>
       </c>
       <c r="I11">
-        <v>0.539</v>
+        <v>0.466</v>
       </c>
       <c r="J11">
-        <v>0.591</v>
+        <v>0.641</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12084,10 +12087,10 @@
         <v>-2.507</v>
       </c>
       <c r="I12">
-        <v>-0.974</v>
+        <v>-0.867</v>
       </c>
       <c r="J12">
-        <v>0.331</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12116,10 +12119,10 @@
         <v>2.572</v>
       </c>
       <c r="I13">
-        <v>1.022</v>
+        <v>0.921</v>
       </c>
       <c r="J13">
-        <v>0.308</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12148,10 +12151,10 @@
         <v>-0.052</v>
       </c>
       <c r="I14">
-        <v>-1.177</v>
+        <v>-1.171</v>
       </c>
       <c r="J14">
-        <v>0.241</v>
+        <v>0.242</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12180,10 +12183,10 @@
         <v>-0.013</v>
       </c>
       <c r="I15">
-        <v>-0.278</v>
+        <v>-0.317</v>
       </c>
       <c r="J15">
-        <v>0.781</v>
+        <v>0.751</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12212,10 +12215,10 @@
         <v>-0.053</v>
       </c>
       <c r="I16">
-        <v>-1.116</v>
+        <v>-0.872</v>
       </c>
       <c r="J16">
-        <v>0.266</v>
+        <v>0.383</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12244,10 +12247,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I17">
-        <v>1.547</v>
+        <v>1.821</v>
       </c>
       <c r="J17">
-        <v>0.124</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12276,10 +12279,10 @@
         <v>0.078</v>
       </c>
       <c r="I18">
-        <v>1.764</v>
+        <v>2.107</v>
       </c>
       <c r="J18">
-        <v>0.08</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12308,10 +12311,10 @@
         <v>0.016</v>
       </c>
       <c r="I19">
-        <v>0.38</v>
+        <v>0.438</v>
       </c>
       <c r="J19">
-        <v>0.704</v>
+        <v>0.661</v>
       </c>
     </row>
   </sheetData>
@@ -12397,10 +12400,10 @@
         <v>6.584</v>
       </c>
       <c r="I2">
-        <v>0.911</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="J2">
-        <v>0.364</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12429,10 +12432,10 @@
         <v>-1.043</v>
       </c>
       <c r="I3">
-        <v>-0.145</v>
+        <v>-0.161</v>
       </c>
       <c r="J3">
-        <v>0.885</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12461,10 +12464,10 @@
         <v>-3.73</v>
       </c>
       <c r="I4">
-        <v>-0.412</v>
+        <v>-0.498</v>
       </c>
       <c r="J4">
-        <v>0.681</v>
+        <v>0.618</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12493,10 +12496,10 @@
         <v>-1.283</v>
       </c>
       <c r="I5">
-        <v>-0.175</v>
+        <v>-0.159</v>
       </c>
       <c r="J5">
-        <v>0.861</v>
+        <v>0.874</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12525,10 +12528,10 @@
         <v>1.48</v>
       </c>
       <c r="I6">
-        <v>0.221</v>
+        <v>0.206</v>
       </c>
       <c r="J6">
-        <v>0.826</v>
+        <v>0.837</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12557,10 +12560,10 @@
         <v>0.313</v>
       </c>
       <c r="I7">
-        <v>0.049</v>
+        <v>0.06</v>
       </c>
       <c r="J7">
-        <v>0.961</v>
+        <v>0.952</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12586,13 +12589,13 @@
         <v>0.014</v>
       </c>
       <c r="H8">
-        <v>-0.6899999999999999</v>
+        <v>-0.674</v>
       </c>
       <c r="I8">
-        <v>-0.233</v>
+        <v>-0.269</v>
       </c>
       <c r="J8">
-        <v>0.8159999999999999</v>
+        <v>0.788</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12621,10 +12624,10 @@
         <v>-0.438</v>
       </c>
       <c r="I9">
-        <v>-0.15</v>
+        <v>-0.146</v>
       </c>
       <c r="J9">
-        <v>0.881</v>
+        <v>0.884</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12653,10 +12656,10 @@
         <v>-0.41</v>
       </c>
       <c r="I10">
-        <v>-0.125</v>
+        <v>-0.152</v>
       </c>
       <c r="J10">
-        <v>0.9</v>
+        <v>0.879</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12685,10 +12688,10 @@
         <v>2.496</v>
       </c>
       <c r="I11">
-        <v>0.801</v>
+        <v>0.638</v>
       </c>
       <c r="J11">
-        <v>0.424</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12717,10 +12720,10 @@
         <v>-1.328</v>
       </c>
       <c r="I12">
-        <v>-0.43</v>
+        <v>-0.48</v>
       </c>
       <c r="J12">
-        <v>0.668</v>
+        <v>0.631</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12749,10 +12752,10 @@
         <v>-0.727</v>
       </c>
       <c r="I13">
-        <v>-0.24</v>
+        <v>-0.336</v>
       </c>
       <c r="J13">
-        <v>0.8100000000000001</v>
+        <v>0.737</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12781,10 +12784,10 @@
         <v>-0.066</v>
       </c>
       <c r="I14">
-        <v>-1.253</v>
+        <v>-1.063</v>
       </c>
       <c r="J14">
-        <v>0.212</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12813,10 +12816,10 @@
         <v>0.008</v>
       </c>
       <c r="I15">
-        <v>0.141</v>
+        <v>0.134</v>
       </c>
       <c r="J15">
-        <v>0.888</v>
+        <v>0.893</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12845,10 +12848,10 @@
         <v>-0.029</v>
       </c>
       <c r="I16">
-        <v>-0.515</v>
+        <v>-0.46</v>
       </c>
       <c r="J16">
-        <v>0.607</v>
+        <v>0.646</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12877,10 +12880,10 @@
         <v>0.05</v>
       </c>
       <c r="I17">
-        <v>0.923</v>
+        <v>1.09</v>
       </c>
       <c r="J17">
-        <v>0.357</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12909,10 +12912,10 @@
         <v>0.095</v>
       </c>
       <c r="I18">
-        <v>1.799</v>
+        <v>2.32</v>
       </c>
       <c r="J18">
-        <v>0.074</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12941,10 +12944,10 @@
         <v>0.011</v>
       </c>
       <c r="I19">
-        <v>0.22</v>
+        <v>0.272</v>
       </c>
       <c r="J19">
-        <v>0.826</v>
+        <v>0.786</v>
       </c>
     </row>
   </sheetData>
@@ -13023,10 +13026,10 @@
         <v>0.747</v>
       </c>
       <c r="H2">
-        <v>0.19</v>
+        <v>0.196</v>
       </c>
       <c r="I2">
-        <v>0.85</v>
+        <v>0.845</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -13052,10 +13055,10 @@
         <v>-5.818</v>
       </c>
       <c r="H3">
-        <v>-1.502</v>
+        <v>-1.429</v>
       </c>
       <c r="I3">
-        <v>0.135</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -13081,10 +13084,10 @@
         <v>-0.989</v>
       </c>
       <c r="H4">
-        <v>-0.201</v>
+        <v>-0.173</v>
       </c>
       <c r="I4">
-        <v>0.841</v>
+        <v>0.863</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -13110,10 +13113,10 @@
         <v>-4.461</v>
       </c>
       <c r="H5">
-        <v>-1.125</v>
+        <v>-0.845</v>
       </c>
       <c r="I5">
-        <v>0.262</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -13139,10 +13142,10 @@
         <v>2.61</v>
       </c>
       <c r="H6">
-        <v>0.716</v>
+        <v>0.976</v>
       </c>
       <c r="I6">
-        <v>0.475</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -13168,10 +13171,10 @@
         <v>0.322</v>
       </c>
       <c r="H7">
-        <v>0.092</v>
+        <v>0.095</v>
       </c>
       <c r="I7">
-        <v>0.927</v>
+        <v>0.924</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -13194,13 +13197,13 @@
         <v>0.05</v>
       </c>
       <c r="G8">
-        <v>0.284</v>
+        <v>0.296</v>
       </c>
       <c r="H8">
-        <v>0.176</v>
+        <v>0.182</v>
       </c>
       <c r="I8">
-        <v>0.861</v>
+        <v>0.855</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -13226,10 +13229,10 @@
         <v>0.977</v>
       </c>
       <c r="H9">
-        <v>0.615</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I9">
-        <v>0.539</v>
+        <v>0.576</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -13255,10 +13258,10 @@
         <v>0.179</v>
       </c>
       <c r="H10">
-        <v>0.101</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="I10">
-        <v>0.92</v>
+        <v>0.9330000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -13284,10 +13287,10 @@
         <v>2.715</v>
       </c>
       <c r="H11">
-        <v>1.612</v>
+        <v>1.21</v>
       </c>
       <c r="I11">
-        <v>0.109</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -13313,10 +13316,10 @@
         <v>-1.559</v>
       </c>
       <c r="H12">
-        <v>-0.93</v>
+        <v>-0.952</v>
       </c>
       <c r="I12">
-        <v>0.354</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -13342,10 +13345,10 @@
         <v>-1.083</v>
       </c>
       <c r="H13">
-        <v>-0.66</v>
+        <v>-0.6889999999999999</v>
       </c>
       <c r="I13">
-        <v>0.511</v>
+        <v>0.491</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -13371,10 +13374,10 @@
         <v>-0.077</v>
       </c>
       <c r="H14">
-        <v>-2.754</v>
+        <v>-2.421</v>
       </c>
       <c r="I14">
-        <v>0.007</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -13400,10 +13403,10 @@
         <v>-0.056</v>
       </c>
       <c r="H15">
-        <v>-1.859</v>
+        <v>-1.534</v>
       </c>
       <c r="I15">
-        <v>0.065</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -13429,10 +13432,10 @@
         <v>-0.037</v>
       </c>
       <c r="H16">
-        <v>-1.18</v>
+        <v>-1.16</v>
       </c>
       <c r="I16">
-        <v>0.24</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -13458,10 +13461,10 @@
         <v>0.018</v>
       </c>
       <c r="H17">
-        <v>0.598</v>
+        <v>0.794</v>
       </c>
       <c r="I17">
-        <v>0.551</v>
+        <v>0.427</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -13487,10 +13490,10 @@
         <v>0.036</v>
       </c>
       <c r="H18">
-        <v>1.23</v>
+        <v>1.552</v>
       </c>
       <c r="I18">
-        <v>0.221</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -13516,10 +13519,10 @@
         <v>0.029</v>
       </c>
       <c r="H19">
-        <v>1.038</v>
+        <v>1.255</v>
       </c>
       <c r="I19">
-        <v>0.301</v>
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
